--- a/parabolic/2025/09/11/parabolic.xlsx
+++ b/parabolic/2025/09/11/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>336</v>
       </c>
       <c r="D2" t="n">
-        <v>130700</v>
+        <v>161100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D3" t="n">
-        <v>341900</v>
+        <v>1926000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D4" t="n">
-        <v>170400</v>
+        <v>214500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>853</v>
+        <v>787</v>
       </c>
       <c r="D5" t="n">
-        <v>789400</v>
+        <v>1116000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D6" t="n">
-        <v>134100</v>
+        <v>152100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D7" t="n">
-        <v>602700</v>
+        <v>2275500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,16 +620,39 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D8" t="n">
-        <v>1110600</v>
+        <v>1423600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>287</v>
+      </c>
+      <c r="D9" t="n">
+        <v>117300</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/11/parabolic.xlsx
+++ b/parabolic/2025/09/11/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D2" t="n">
-        <v>161100</v>
+        <v>233700</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D3" t="n">
-        <v>1926000</v>
+        <v>2360700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="D4" t="n">
-        <v>214500</v>
+        <v>279100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="D5" t="n">
-        <v>1116000</v>
+        <v>1372200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" t="n">
-        <v>152100</v>
+        <v>172400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" t="n">
-        <v>2275500</v>
+        <v>3054500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D8" t="n">
-        <v>1423600</v>
+        <v>1738100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>7604</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,16 +643,85 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>287</v>
+        <v>821</v>
       </c>
       <c r="D9" t="n">
-        <v>117300</v>
+        <v>136000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>289</v>
+      </c>
+      <c r="D10" t="n">
+        <v>269300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>684</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4016300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>9271</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>854</v>
+      </c>
+      <c r="D12" t="n">
+        <v>111700</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/11/parabolic.xlsx
+++ b/parabolic/2025/09/11/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D2" t="n">
-        <v>233700</v>
+        <v>300300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3" t="n">
-        <v>2360700</v>
+        <v>2820000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="D4" t="n">
-        <v>279100</v>
+        <v>358900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>817</v>
+        <v>751</v>
       </c>
       <c r="D5" t="n">
-        <v>1372200</v>
+        <v>1770500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D6" t="n">
-        <v>172400</v>
+        <v>206000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D7" t="n">
-        <v>3054500</v>
+        <v>3702100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>887</v>
       </c>
       <c r="D8" t="n">
-        <v>1738100</v>
+        <v>2096100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D9" t="n">
-        <v>136000</v>
+        <v>148700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D10" t="n">
-        <v>269300</v>
+        <v>370200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9227</t>
+          <t>7831</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>684</v>
+        <v>123</v>
       </c>
       <c r="D11" t="n">
-        <v>4016300</v>
+        <v>141600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9271</t>
+          <t>9227</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,16 +712,62 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>854</v>
+        <v>670</v>
       </c>
       <c r="D12" t="n">
-        <v>111700</v>
+        <v>4777500</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>9271</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>878</v>
+      </c>
+      <c r="D13" t="n">
+        <v>145600</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9534</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>674</v>
+      </c>
+      <c r="D14" t="n">
+        <v>129700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
